--- a/outputs-r202/test-g__Lactococcus.xlsx
+++ b/outputs-r202/test-g__Lactococcus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Row</t>
   </si>
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -104,14 +104,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,171 +149,171 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.033157122935185745</v>
+        <v>4.3253416095324057e-13</v>
       </c>
       <c r="C2">
-        <v>0.89389799879579634</v>
+        <v>4.3253416095324057e-13</v>
       </c>
       <c r="D2">
-        <v>2.2244990855149297e-14</v>
+        <v>4.3253416095324057e-13</v>
       </c>
       <c r="E2">
-        <v>2.2244990855149297e-14</v>
+        <v>4.3253416095324057e-13</v>
       </c>
       <c r="F2">
-        <v>2.2244990855149297e-14</v>
+        <v>4.3253416095324057e-13</v>
       </c>
       <c r="G2">
-        <v>0.013307255553313486</v>
+        <v>0.1054411956965481</v>
       </c>
       <c r="H2">
-        <v>2.2244990855149297e-14</v>
+        <v>4.3253416095324062e-13</v>
       </c>
       <c r="I2">
-        <v>0.0015778396659742204</v>
+        <v>0.039866788867317697</v>
       </c>
       <c r="J2">
-        <v>0.0038036778867934699</v>
+        <v>0.33533733286506906</v>
       </c>
       <c r="K2">
-        <v>0.033157122935185718</v>
+        <v>4.3253416095324011e-13</v>
       </c>
       <c r="L2">
-        <v>2.2244990855149297e-14</v>
+        <v>4.3253416095324017e-13</v>
       </c>
       <c r="M2">
-        <v>0.021098982227550717</v>
+        <v>0.24180627680167141</v>
       </c>
       <c r="N2">
-        <v>2.2244990855149297e-14</v>
+        <v>4.3253416095324017e-13</v>
       </c>
       <c r="O2">
-        <v>2.2244990855149297e-14</v>
+        <v>0.27754840576463596</v>
       </c>
       <c r="P2">
-        <v>2.2244990855149297e-14</v>
+        <v>4.3253416095324011e-13</v>
       </c>
       <c r="Q2">
-        <v>2.2244990855149297e-14</v>
+        <v>4.3253416095324011e-13</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.033535104314057811</v>
+        <v>5.6548751926737636e-13</v>
       </c>
       <c r="C3">
-        <v>0.90528157938566667</v>
+        <v>5.6548751926737636e-13</v>
       </c>
       <c r="D3">
-        <v>2.2232582246238598e-14</v>
+        <v>5.6548751926737636e-13</v>
       </c>
       <c r="E3">
-        <v>2.2232582246238598e-14</v>
+        <v>5.6548751926737636e-13</v>
       </c>
       <c r="F3">
-        <v>2.2232582246238598e-14</v>
+        <v>5.6548751926737636e-13</v>
       </c>
       <c r="G3">
-        <v>0.0045212552526428113</v>
+        <v>0.1093753625880458</v>
       </c>
       <c r="H3">
-        <v>2.2232582246238598e-14</v>
+        <v>5.6548751926737646e-13</v>
       </c>
       <c r="I3">
-        <v>0.0015300561582877682</v>
+        <v>0.057099581063937817</v>
       </c>
       <c r="J3">
-        <v>0.00037086761991888531</v>
+        <v>0.30999547569707325</v>
       </c>
       <c r="K3">
-        <v>0.033535104314057811</v>
+        <v>5.6548751926737575e-13</v>
       </c>
       <c r="L3">
-        <v>2.2232582246238598e-14</v>
+        <v>5.6548751926737575e-13</v>
       </c>
       <c r="M3">
-        <v>0.021226032955168107</v>
+        <v>0.24585600099210481</v>
       </c>
       <c r="N3">
-        <v>2.2232582246238598e-14</v>
+        <v>5.6548751926737565e-13</v>
       </c>
       <c r="O3">
-        <v>2.2232582246238598e-14</v>
+        <v>0.27767357965261785</v>
       </c>
       <c r="P3">
-        <v>2.2232582246238598e-14</v>
+        <v>5.6548751926737565e-13</v>
       </c>
       <c r="Q3">
-        <v>2.2232582246238598e-14</v>
+        <v>5.6548751926737646e-13</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
